--- a/data/trans_camb/P23_8_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_8_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,76</t>
+          <t>-4,35; 3,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,56</t>
+          <t>-4,24; 4,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,02</t>
+          <t>-4,91; 3,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 3,13</t>
+          <t>6,18; 25,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 5,11</t>
+          <t>1,78; 22,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 17,48</t>
+          <t>-5,41; 3,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 2,13</t>
+          <t>-4,21; 5,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,34</t>
+          <t>-4,38; 5,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,47</t>
+          <t>-5,72; 4,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; -1,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 2,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 3,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 3,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 14,27</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 8,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>115,64%</t>
+          <t>-32,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,92%</t>
+          <t>750,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>191,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>186,9%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>156,08%</t>
+          <t>-20,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-68,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-9,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>208,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,06%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-84,5; 491,15</t>
+          <t>-85,22; 403,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 622,48</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-57,73; 1144,93</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,76; 260,09</t>
+          <t>31,33; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 363,86</t>
+          <t>8,62; 848,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 927,34</t>
+          <t>-82,42; 284,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,8; 131,19</t>
+          <t>-71,59; 411,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,66; 209,91</t>
+          <t>-66,75; 396,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 580,69</t>
+          <t>-80,33; 191,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-92,63; 0,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-69,24; 179,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-65,05; 184,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-63,19; 204,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>31,12; 641,64</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-44,75; 130,61</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 10,17</t>
+          <t>-2,68; 12,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,35</t>
+          <t>-3,84; 3,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 13,83</t>
+          <t>-3,02; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,87</t>
+          <t>1,09; 16,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 3,04</t>
+          <t>-5,82; 11,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,0</t>
+          <t>-6,54; 2,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,41</t>
+          <t>-6,08; 3,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,16</t>
+          <t>-3,45; 7,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,06</t>
+          <t>-6,41; 4,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 5,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 2,25</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 4,89</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 9,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 6,52</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>214,85%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,43%</t>
+          <t>173,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>-23,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>-11,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>-13,82%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32,65%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>67,88%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 676,15</t>
+          <t>-65,3; 749,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,37; 248,12</t>
+          <t>-71,7; 279,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 1003,91</t>
+          <t>-57,85; 368,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 125,71</t>
+          <t>1,43; 660,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 114,34</t>
+          <t>-44,34; 203,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 183,86</t>
+          <t>-78,54; 125,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,44; 167,91</t>
+          <t>-72,8; 124,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 80,79</t>
+          <t>-53,67; 278,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 307,47</t>
+          <t>-66,56; 119,37</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-63,54; 198,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-55,63; 197,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-56,12; 87,17</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-34,92; 187,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 230,4</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-36,36; 115,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 5,43</t>
+          <t>-6,28; 3,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,23</t>
+          <t>-4,64; 3,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 9,09</t>
+          <t>-3,46; 8,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,51</t>
+          <t>-1,8; 14,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,86</t>
+          <t>-3,8; 11,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 10,0</t>
+          <t>-6,51; 0,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,56</t>
+          <t>-4,59; 2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,21</t>
+          <t>-4,52; 3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,53</t>
+          <t>-0,96; 7,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 2,13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 0,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 1,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 4,07</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 9,75</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 5,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,47%</t>
+          <t>-29,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-43,53%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>-45,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-33,08%</t>
+          <t>-15,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>-15,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-26,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-37,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>77,78%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 145,2</t>
+          <t>-74,21; 112,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 112,09</t>
+          <t>-53,51; 97,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 241,74</t>
+          <t>-47,77; 199,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,62; 19,59</t>
+          <t>-32,36; 299,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 87,14</t>
+          <t>-34,42; 160,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 284,18</t>
+          <t>-75,51; 33,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 45,76</t>
+          <t>-57,91; 69,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 50,16</t>
+          <t>-58,59; 83,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,96; 194,27</t>
+          <t>-20,62; 244,13</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-59,18; 28,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-67,07; 24,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-44,09; 40,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-42,84; 90,45</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 213,91</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 70,72</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,06</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,1</t>
+          <t>-5,43; 5,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 7,27</t>
+          <t>-4,74; 6,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 18,08</t>
+          <t>-3,89; 7,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,07</t>
+          <t>0,44; 12,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,54</t>
+          <t>-10,17; 5,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 13,77</t>
+          <t>-2,52; 5,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,2</t>
+          <t>-2,14; 5,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,86</t>
+          <t>0,96; 10,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,89</t>
+          <t>-6,52; 4,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 2,4</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 4,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 5,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 7,47</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 6,78</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 2,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211,72%</t>
+          <t>56,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>-7,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>120,84%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>160,69%</t>
+          <t>-10,46%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-27,06%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>34,28%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>67,59%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-16,52%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 197,27</t>
+          <t>-67,94; 189,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 254,41</t>
+          <t>-54,09; 237,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,45; 577,78</t>
+          <t>-50,51; 231,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 132,49</t>
+          <t>3,84; 193,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 115,87</t>
+          <t>-46,78; 44,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,12; 314,38</t>
+          <t>-27,98; 125,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 118,49</t>
+          <t>-27,78; 126,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 103,57</t>
+          <t>7,85; 204,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>55,32; 297,98</t>
+          <t>-48,1; 42,04</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-57,92; 22,79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-35,73; 98,79</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-24,06; 124,81</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 165,34</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 84,65</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-40,46; 19,4</t>
         </is>
       </c>
     </row>
@@ -1501,42 +2029,72 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>10,26</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 5,15</t>
+          <t>-6,2; 5,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,11</t>
+          <t>-5,51; 3,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,42; 18,31</t>
+          <t>-6,57; 3,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 1,94</t>
+          <t>5,98; 19,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,73</t>
+          <t>-7,46; 9,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 9,09</t>
+          <t>-7,84; 2,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 1,88</t>
+          <t>-7,05; 3,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,79</t>
+          <t>-4,28; 7,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 11,54</t>
+          <t>1,03; 16,37</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 15,26</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 2,59</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 2,39</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 4,27</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 15,08</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 9,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>-17,51%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>145,1%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>195,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>-25,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>69,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>55,66%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-21,97%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-13,63%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>111,58%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,54; 115,36</t>
+          <t>-63,17; 140,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 82,98</t>
+          <t>-53,91; 71,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,19; 345,08</t>
+          <t>-60,45; 65,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,18; 30,51</t>
+          <t>56,59; 460,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 52,37</t>
+          <t>-33,54; 67,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 125,89</t>
+          <t>-60,5; 36,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-53,15; 31,23</t>
+          <t>-53,59; 47,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 46,28</t>
+          <t>-35,59; 103,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,07; 161,52</t>
+          <t>6,29; 196,47</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 155,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-53,68; 37,42</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-43,1; 34,86</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-35,77; 62,12</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>46,2; 220,03</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 79,65</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>8,61</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 4,6</t>
+          <t>-5,65; 4,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 4,86</t>
+          <t>-5,68; 5,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,96</t>
+          <t>0,11; 15,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 3,63</t>
+          <t>-13,37; 3,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,88</t>
+          <t>-10,68; 5,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 12,97</t>
+          <t>-9,21; 2,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,47</t>
+          <t>-7,55; 4,25</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,39</t>
+          <t>0,96; 17,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 11,3</t>
+          <t>-10,42; 8,19</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 13,46</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 2,39</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 3,46</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 14,24</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; 4,5</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 7,57</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-3,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>122,41%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-31,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>-29,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>-10,83%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>107,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>-5,54%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>111,74%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-13,93%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 128,89</t>
+          <t>-58,49; 119,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 126,78</t>
+          <t>-60,24; 131,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 318,32</t>
+          <t>-7,45; 330,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-65,4; 77,48</t>
+          <t>-66,05; 39,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 94,43</t>
+          <t>-61,33; 73,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 259,94</t>
+          <t>-71,27; 53,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 52,66</t>
+          <t>-60,42; 81,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 71,82</t>
+          <t>-4,06; 324,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,19; 207,84</t>
+          <t>-45,87; 64,6</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; 170,06</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-54,79; 44,19</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-48,88; 64,21</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 255,53</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-44,09; 35,56</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-35,17; 79,51</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,49</t>
+          <t>-2,27; 2,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,65</t>
+          <t>-1,87; 1,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,75</t>
+          <t>-0,37; 4,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,67</t>
+          <t>3,83; 10,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,64</t>
+          <t>-1,33; 5,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,57</t>
+          <t>-3,51; 0,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,78</t>
+          <t>-2,39; 1,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,51</t>
+          <t>0,5; 5,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,91</t>
+          <t>-1,56; 4,19</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 2,68</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 0,6</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 1,27</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 4,13</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 6,35</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,05</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>140,78%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-17,47%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>103,09%</t>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-11,76%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>41,94%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>48,4%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 58,22</t>
+          <t>-35,72; 52,72</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 67,14</t>
+          <t>-27,81; 44,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>70,24; 227,27</t>
+          <t>-9,02; 94,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 11,85</t>
+          <t>40,83; 165,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 31,05</t>
+          <t>-10,05; 53,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,05; 132,1</t>
+          <t>-41,55; 9,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 15,33</t>
+          <t>-29,86; 29,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 29,2</t>
+          <t>6,72; 96,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>60,87; 151,11</t>
+          <t>-13,93; 48,37</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-23,58; 25,51</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 10,81</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; 23,17</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 75,06</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 82,01</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 28,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
